--- a/Session12/evaluacion/productos.xlsx
+++ b/Session12/evaluacion/productos.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">aa3</t>
   </si>
   <si>
-    <t xml:space="preserve">lapiz Pasta Rojo</t>
+    <t xml:space="preserve">Lapiz Pasta Rojo</t>
   </si>
   <si>
     <t xml:space="preserve">aa4</t>
@@ -252,8 +252,8 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="310" zoomScaleNormal="310" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
